--- a/TestData/secondFlow/editSyncOptions.xlsx
+++ b/TestData/secondFlow/editSyncOptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\secondFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6CDC0F-F495-4ABD-AAB9-F8C7E46F0667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A3AAE7-F633-401D-8708-028642A0F70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3708" yWindow="2700" windowWidth="18756" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="18756" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Second Flow</t>
-  </si>
-  <si>
     <t>/opt/source.sh</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>172.29.31.183</t>
+  </si>
+  <si>
+    <t>One For All</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,16 +588,16 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" t="s">
         <v>27</v>
-      </c>
-      <c r="T3" t="s">
-        <v>28</v>
       </c>
       <c r="U3" t="s">
         <v>25</v>
@@ -614,16 +614,16 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="S4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U4" t="s">
         <v>25</v>

--- a/TestData/secondFlow/editSyncOptions.xlsx
+++ b/TestData/secondFlow/editSyncOptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\secondFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A3AAE7-F633-401D-8708-028642A0F70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB88F127-97F9-4A32-8C49-F2565D67DCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="18756" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Sync Options</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Wave Name</t>
   </si>
   <si>
-    <t>Host Number</t>
-  </si>
-  <si>
     <t>Event Script</t>
   </si>
   <si>
@@ -114,7 +111,16 @@
     <t>172.29.31.183</t>
   </si>
   <si>
-    <t>One For All</t>
+    <t>psp-MyLinSecondFlow-src1</t>
+  </si>
+  <si>
+    <t>psp-MyLinSecondFlow-src2</t>
+  </si>
+  <si>
+    <t>Host Name</t>
+  </si>
+  <si>
+    <t>Second Flow</t>
   </si>
 </sst>
 </file>
@@ -458,14 +464,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
@@ -482,7 +488,7 @@
     <col min="16" max="16" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19.33203125" bestFit="1" customWidth="1"/>
@@ -495,7 +501,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -568,74 +574,74 @@
         <v>16</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
       </c>
       <c r="S3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" t="s">
         <v>26</v>
       </c>
-      <c r="T3" t="s">
-        <v>27</v>
-      </c>
       <c r="U3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
       <c r="S4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
